--- a/SCDDesigner.xlsx
+++ b/SCDDesigner.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Designer" sheetId="1" r:id="rId1"/>
-    <sheet name="Legend" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Legend" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" calcOnSave="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Database</t>
   </si>
@@ -60,9 +60,6 @@
     <t>tgt_Table</t>
   </si>
   <si>
-    <t>col1</t>
-  </si>
-  <si>
     <t>Type2</t>
   </si>
   <si>
@@ -79,6 +76,30 @@
   </si>
   <si>
     <t>Type1</t>
+  </si>
+  <si>
+    <t>Type3</t>
+  </si>
+  <si>
+    <t>col3="yyyy-MM-dd' 'HH:mm:ss"|col5="yyyyMMDD"</t>
+  </si>
+  <si>
+    <t>col1|col2</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>src_Table1</t>
+  </si>
+  <si>
+    <t>tgt_Table2</t>
+  </si>
+  <si>
+    <t>col3|col4|col5</t>
   </si>
 </sst>
 </file>
@@ -139,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -172,7 +193,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -181,52 +202,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -421,51 +397,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,194 +780,235 @@
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="J6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G4:G5"/>
+  <mergeCells count="7">
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1005,15 +1017,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Legend!$A$2:$A$3</xm:f>
+            <xm:f>Legend!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G6</xm:sqref>
+          <xm:sqref>H6:H15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Legend!$B$2:$B$5</xm:f>
+            <xm:f>Legend!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H6</xm:sqref>
+          <xm:sqref>I6:I7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1023,53 +1035,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
